--- a/data/trans_orig/Q17F_D_R2-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q17F_D_R2-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>13057</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7241</v>
+        <v>7263</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22255</v>
+        <v>21587</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1665464660011389</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09235975142017062</v>
+        <v>0.09264722740155204</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2838668760746682</v>
+        <v>0.2753429249865162</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -765,19 +765,19 @@
         <v>10727</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5377</v>
+        <v>5553</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>17346</v>
+        <v>17310</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1430405533398143</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.07169589006769898</v>
+        <v>0.07404804024832841</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2312974998805668</v>
+        <v>0.2308262111040638</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>23784</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16086</v>
+        <v>15438</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>34665</v>
+        <v>34508</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1550545223337011</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.104869073644982</v>
+        <v>0.1006429561760681</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2259867449368688</v>
+        <v>0.2249660818732503</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>4651</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1711</v>
+        <v>1795</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10245</v>
+        <v>10423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05932300404110381</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02182180225922453</v>
+        <v>0.0228919172734694</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1306733305655981</v>
+        <v>0.1329472743217492</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>8903</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4195</v>
+        <v>4089</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15664</v>
+        <v>15311</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1187142402722682</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05594243489599234</v>
+        <v>0.05452647810372534</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2088710532368343</v>
+        <v>0.2041658799824577</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>14</v>
@@ -857,19 +857,19 @@
         <v>13554</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7817</v>
+        <v>7386</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>22828</v>
+        <v>22039</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.08835913426679878</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05095963279453335</v>
+        <v>0.04814879218124745</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1488244720957266</v>
+        <v>0.1436768988539231</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>8504</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3523</v>
+        <v>3779</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15003</v>
+        <v>15251</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1084655499255718</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04493419476305367</v>
+        <v>0.04820685501786073</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1913686433582568</v>
+        <v>0.19452652737951</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -907,19 +907,19 @@
         <v>7882</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3627</v>
+        <v>3797</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>13726</v>
+        <v>14645</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1050990246319198</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04837024817182366</v>
+        <v>0.05062652005069992</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1830297246213569</v>
+        <v>0.1952814136679202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -928,19 +928,19 @@
         <v>16385</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>9379</v>
+        <v>10253</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24982</v>
+        <v>25577</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1068196696065613</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.06114620040748086</v>
+        <v>0.06684015671270876</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1628607070735104</v>
+        <v>0.1667423147671552</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>52187</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>42204</v>
+        <v>41943</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>60104</v>
+        <v>60043</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6656649800321854</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5383284696981191</v>
+        <v>0.5349989078344825</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7666444160077621</v>
+        <v>0.765869259705621</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>48</v>
@@ -978,19 +978,19 @@
         <v>47482</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38807</v>
+        <v>39156</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54825</v>
+        <v>55178</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6331461817559977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5174735313436787</v>
+        <v>0.5221345149908633</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7310666622920042</v>
+        <v>0.7357776529800214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>97</v>
@@ -999,19 +999,19 @@
         <v>99669</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>86588</v>
+        <v>87304</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>111803</v>
+        <v>112640</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6497666737929388</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5644905757517629</v>
+        <v>0.5691576867523154</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7288729826368184</v>
+        <v>0.7343253564235843</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>7826</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3689</v>
+        <v>3880</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14225</v>
+        <v>13764</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.133361726136515</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06286250175485494</v>
+        <v>0.06611534332016203</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2424096135981847</v>
+        <v>0.2345569125840474</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1124,19 +1124,19 @@
         <v>10776</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5029</v>
+        <v>5156</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17952</v>
+        <v>18922</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1215507638992236</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.05672162904838057</v>
+        <v>0.05815798889521666</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2024803245673482</v>
+        <v>0.2134271448895531</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>18</v>
@@ -1145,19 +1145,19 @@
         <v>18602</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>11291</v>
+        <v>11308</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>27931</v>
+        <v>28191</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1262548148135972</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07663464269296527</v>
+        <v>0.07674979729515528</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1895653669905809</v>
+        <v>0.191334901887798</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>5464</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1934</v>
+        <v>1702</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11813</v>
+        <v>11427</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09310897932059639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03296084604437219</v>
+        <v>0.02900460608807937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2013063995798179</v>
+        <v>0.1947190841860399</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1195,19 +1195,19 @@
         <v>10075</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4910</v>
+        <v>4801</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17535</v>
+        <v>17757</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1136338382140917</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05538607743851019</v>
+        <v>0.05415668005589251</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1977808369203592</v>
+        <v>0.2002906918763962</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -1216,19 +1216,19 @@
         <v>15538</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8698</v>
+        <v>9515</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24335</v>
+        <v>24979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1054592306499007</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0590330088320519</v>
+        <v>0.06457748309576637</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1651630231912455</v>
+        <v>0.1695306042174616</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>2687</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7441</v>
+        <v>7044</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04579559545014111</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0137842108113533</v>
+        <v>0.01351197366845204</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1268041090831219</v>
+        <v>0.1200321353556572</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>3</v>
@@ -1266,19 +1266,19 @@
         <v>3073</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>8307</v>
+        <v>8418</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03466307638966627</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01119539866121409</v>
+        <v>0.01116241130443595</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0937026681663404</v>
+        <v>0.09494711968416669</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>6</v>
@@ -1287,19 +1287,19 @@
         <v>5761</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1993</v>
+        <v>2021</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>11951</v>
+        <v>12576</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03909691805418064</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0135257148618431</v>
+        <v>0.01371493185841582</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08111042661180676</v>
+        <v>0.0853543249625504</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>42705</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>35593</v>
+        <v>35559</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49316</v>
+        <v>48734</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7277336990927475</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6065477280044588</v>
+        <v>0.6059668591808166</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8403956151349476</v>
+        <v>0.8304679475864585</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -1337,19 +1337,19 @@
         <v>64734</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>55350</v>
+        <v>55286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72684</v>
+        <v>72680</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7301523214970185</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6243045536928044</v>
+        <v>0.6235880979527865</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8198294602448863</v>
+        <v>0.8197737379461407</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>105</v>
@@ -1358,19 +1358,19 @@
         <v>107439</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>94913</v>
+        <v>95506</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>117395</v>
+        <v>117067</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7291890364823214</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.64417854545777</v>
+        <v>0.6482005547482034</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7967644911344033</v>
+        <v>0.7945363479892934</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>14233</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8462</v>
+        <v>8305</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22216</v>
+        <v>21983</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1241731129405619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07382543630815028</v>
+        <v>0.07246089744781006</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1938200677043477</v>
+        <v>0.1917902111090648</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -1483,19 +1483,19 @@
         <v>6834</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>3045</v>
+        <v>2917</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14565</v>
+        <v>13133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1246040114834479</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05552520526199353</v>
+        <v>0.05319358303129566</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2655888356967824</v>
+        <v>0.2394749247613748</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>21</v>
@@ -1504,19 +1504,19 @@
         <v>21066</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>13493</v>
+        <v>13265</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>30984</v>
+        <v>30270</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1243125620222748</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07962284900074601</v>
+        <v>0.07827663588764092</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1828384504481303</v>
+        <v>0.1786252486806153</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>13485</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7645</v>
+        <v>7695</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>21682</v>
+        <v>23027</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1176464086072257</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06670153931967528</v>
+        <v>0.06713867756430421</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1891664889043684</v>
+        <v>0.2008966002733021</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1554,19 +1554,19 @@
         <v>3091</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>972</v>
+        <v>957</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>8253</v>
+        <v>8222</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05636810227282618</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01772808340694661</v>
+        <v>0.01744994498545681</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1504842379663161</v>
+        <v>0.1499170912287816</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>16</v>
@@ -1575,19 +1575,19 @@
         <v>16576</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>9487</v>
+        <v>10123</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>26175</v>
+        <v>25675</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.09781528202689056</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.05598104597655216</v>
+        <v>0.05973432278881666</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1544580256553075</v>
+        <v>0.1515125514456719</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>13811</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8001</v>
+        <v>8143</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21975</v>
+        <v>22218</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1204940180668109</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06980495629097616</v>
+        <v>0.07104036312986092</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1917202785094089</v>
+        <v>0.1938404902711136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1625,19 +1625,19 @@
         <v>6180</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2812</v>
+        <v>2299</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12232</v>
+        <v>12263</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1126838833579273</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0512735782340443</v>
+        <v>0.04192617382060791</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2230429560345848</v>
+        <v>0.2235994247979742</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1646,19 +1646,19 @@
         <v>19991</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12864</v>
+        <v>12328</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>29568</v>
+        <v>28732</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1179664715452715</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07590950904081356</v>
+        <v>0.07275040673761708</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1744841487814905</v>
+        <v>0.1695482926116028</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>73092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>62914</v>
+        <v>62333</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>82955</v>
+        <v>83205</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6376864603854014</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5488917240083004</v>
+        <v>0.5438224727840211</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7237378678248603</v>
+        <v>0.7259221700085778</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -1696,19 +1696,19 @@
         <v>38737</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31615</v>
+        <v>31640</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44963</v>
+        <v>44856</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7063440028857987</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5764780705817678</v>
+        <v>0.5769317413819002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8198572203619294</v>
+        <v>0.8179210574071635</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>114</v>
@@ -1717,19 +1717,19 @@
         <v>111828</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>99553</v>
+        <v>99869</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>123781</v>
+        <v>124140</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6599056844055631</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5874667546757504</v>
+        <v>0.589330859250365</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7304382004357709</v>
+        <v>0.7325576211999855</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>29266</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20296</v>
+        <v>19559</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>40011</v>
+        <v>40962</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1124074477900783</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07795600088065049</v>
+        <v>0.07512351264890808</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1536780966636583</v>
+        <v>0.1573299630169478</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>21</v>
@@ -1842,19 +1842,19 @@
         <v>21431</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>13819</v>
+        <v>13507</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>32009</v>
+        <v>32277</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1034073288994816</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06668029750865014</v>
+        <v>0.06517106718786118</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1544453180805805</v>
+        <v>0.1557405015974895</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>51</v>
@@ -1863,19 +1863,19 @@
         <v>50697</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>38588</v>
+        <v>38559</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>64531</v>
+        <v>64817</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1084184678998761</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.08252222199900489</v>
+        <v>0.08245912105512868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.138002989394197</v>
+        <v>0.1386141226552362</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>19074</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12354</v>
+        <v>12586</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28476</v>
+        <v>28598</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07326156741535116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04744959327360043</v>
+        <v>0.04834055965895608</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1093747970177653</v>
+        <v>0.1098429406483327</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -1913,19 +1913,19 @@
         <v>15089</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8757</v>
+        <v>8509</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24766</v>
+        <v>23031</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07280567824356389</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04225107223729998</v>
+        <v>0.04105746525436869</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1194999446870024</v>
+        <v>0.1111263448622965</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>35</v>
@@ -1934,19 +1934,19 @@
         <v>34163</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24200</v>
+        <v>24029</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>46425</v>
+        <v>45679</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07305951089137341</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05175191057271101</v>
+        <v>0.05138689338813565</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.09928224230454179</v>
+        <v>0.09768701535227217</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>24380</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>16820</v>
+        <v>16929</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>34815</v>
+        <v>35648</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09363977214891268</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06460294309683731</v>
+        <v>0.06502208808185542</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1337195519194835</v>
+        <v>0.1369209948525544</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>26</v>
@@ -1984,19 +1984,19 @@
         <v>26637</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18707</v>
+        <v>17059</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>37271</v>
+        <v>37667</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1285252273664775</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09026517778630053</v>
+        <v>0.08230950413944227</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1798351445036333</v>
+        <v>0.1817469716684642</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>51</v>
@@ -2005,19 +2005,19 @@
         <v>51017</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>39708</v>
+        <v>38983</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66121</v>
+        <v>66839</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1091014989344119</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.08491762644714243</v>
+        <v>0.0833675687736978</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1414028517637232</v>
+        <v>0.1429388052746947</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>187637</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>173187</v>
+        <v>172513</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>200880</v>
+        <v>201188</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7206912126456578</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6651910897170885</v>
+        <v>0.6626001950240266</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7715567283768651</v>
+        <v>0.7727373630108795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>142</v>
@@ -2055,19 +2055,19 @@
         <v>144093</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>131177</v>
+        <v>129049</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>156945</v>
+        <v>157499</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.695261765490477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6329399613440908</v>
+        <v>0.6226747936036835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7572741483787847</v>
+        <v>0.7599477855108978</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>330</v>
@@ -2076,19 +2076,19 @@
         <v>331731</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>311453</v>
+        <v>312165</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>350793</v>
+        <v>351799</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7094205222743386</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6660562264002454</v>
+        <v>0.6675781060957434</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7501855434071901</v>
+        <v>0.7523380643659249</v>
       </c>
     </row>
     <row r="23">
@@ -2180,19 +2180,19 @@
         <v>8103</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>4228</v>
+        <v>3677</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14260</v>
+        <v>13826</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1169926471375304</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.06104882913585093</v>
+        <v>0.05309389860581058</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2058778466451166</v>
+        <v>0.1996245664478602</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>19</v>
@@ -2201,19 +2201,19 @@
         <v>20694</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>12808</v>
+        <v>13076</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>31481</v>
+        <v>30695</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1183693999239286</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.07325910914759828</v>
+        <v>0.07479423913064637</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1800672207110901</v>
+        <v>0.1755753789432916</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>28</v>
@@ -2222,19 +2222,19 @@
         <v>28798</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>19722</v>
+        <v>19398</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>40670</v>
+        <v>39774</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1179787370908552</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08079753013752479</v>
+        <v>0.07947044602838793</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1666186125645678</v>
+        <v>0.1629460283234109</v>
       </c>
     </row>
     <row r="25">
@@ -2251,19 +2251,19 @@
         <v>5477</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1973</v>
+        <v>1954</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>11952</v>
+        <v>11396</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07907028766289255</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02848088604166418</v>
+        <v>0.02820965266800842</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1725566123780203</v>
+        <v>0.1645282343841356</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>9</v>
@@ -2272,19 +2272,19 @@
         <v>9236</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>4234</v>
+        <v>4157</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>16683</v>
+        <v>16670</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05282738263933857</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.02421719037509254</v>
+        <v>0.02377674348782983</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09542659710301186</v>
+        <v>0.09534947584385917</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>14</v>
@@ -2293,19 +2293,19 @@
         <v>14712</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>8583</v>
+        <v>8472</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>23991</v>
+        <v>24548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06027398287568131</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03516153932946019</v>
+        <v>0.03470961286797835</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09828782395967975</v>
+        <v>0.1005689154557542</v>
       </c>
     </row>
     <row r="26">
@@ -2322,19 +2322,19 @@
         <v>3431</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7827</v>
+        <v>8125</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.04952967347739887</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01242292233752766</v>
+        <v>0.01238979582445443</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1130105952813874</v>
+        <v>0.117306667549292</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -2343,19 +2343,19 @@
         <v>14074</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>7792</v>
+        <v>8003</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22052</v>
+        <v>22255</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0805024591794167</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.04457183329001458</v>
+        <v>0.04577643428943323</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1261335650099555</v>
+        <v>0.1272977221662474</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2364,19 +2364,19 @@
         <v>17505</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10407</v>
+        <v>10205</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>25786</v>
+        <v>25959</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07171372359081364</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04263372068640003</v>
+        <v>0.041809719650355</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1056403707012206</v>
+        <v>0.1063477971487002</v>
       </c>
     </row>
     <row r="27">
@@ -2393,19 +2393,19 @@
         <v>52252</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>44056</v>
+        <v>45365</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>58427</v>
+        <v>58723</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7544073917221782</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6360827257628749</v>
+        <v>0.6549757343585256</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8435622802498806</v>
+        <v>0.8478316333661107</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>126</v>
@@ -2414,19 +2414,19 @@
         <v>130824</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>118019</v>
+        <v>118848</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>142286</v>
+        <v>142500</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.7483007582573161</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6750575499737671</v>
+        <v>0.6797970871026501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.8138636367570136</v>
+        <v>0.8150847582295639</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>178</v>
@@ -2435,19 +2435,19 @@
         <v>183076</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>167864</v>
+        <v>169551</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>195853</v>
+        <v>196736</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.7500335564426499</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.687710902808619</v>
+        <v>0.6946230412940765</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8023758718541351</v>
+        <v>0.8059930822507392</v>
       </c>
     </row>
     <row r="28">
@@ -2542,7 +2542,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>6745</v>
+        <v>5952</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09078962199122799</v>
@@ -2551,7 +2551,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3236419249307234</v>
+        <v>0.2856086454416391</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>32</v>
@@ -2560,19 +2560,19 @@
         <v>32998</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>23182</v>
+        <v>23340</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>46125</v>
+        <v>45815</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08973830965373585</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06304474674855139</v>
+        <v>0.0634743774832973</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1254389458506007</v>
+        <v>0.1245945066331315</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>34</v>
@@ -2581,19 +2581,19 @@
         <v>34890</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>25049</v>
+        <v>25402</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>47426</v>
+        <v>48563</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08979469660058997</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06446706589177371</v>
+        <v>0.06537607388223797</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1220595450796241</v>
+        <v>0.1249851278256316</v>
       </c>
     </row>
     <row r="30">
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5850</v>
+        <v>5797</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09231789295390543</v>
@@ -2622,7 +2622,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2807073126510608</v>
+        <v>0.2781484884801254</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>30</v>
@@ -2631,19 +2631,19 @@
         <v>31144</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>22155</v>
+        <v>21582</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>43114</v>
+        <v>43355</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08469611731316586</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.06025187183698876</v>
+        <v>0.05869331275126521</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1172504809519816</v>
+        <v>0.1179052093854944</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>32</v>
@@ -2652,19 +2652,19 @@
         <v>33068</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>23307</v>
+        <v>24063</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>44963</v>
+        <v>45470</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08510490986953753</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05998305665694579</v>
+        <v>0.06192893513894785</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1157201442733072</v>
+        <v>0.1170237533493022</v>
       </c>
     </row>
     <row r="31">
@@ -2684,16 +2684,16 @@
         <v>843</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6770</v>
+        <v>7090</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1267959717188965</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04045143900862275</v>
+        <v>0.04046719727931826</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3248621494337845</v>
+        <v>0.3401923312878127</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>35</v>
@@ -2702,19 +2702,19 @@
         <v>34996</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>25464</v>
+        <v>24847</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>47293</v>
+        <v>47174</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.09517175178078642</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.0692499464188146</v>
+        <v>0.06757080198403984</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1286154862335602</v>
+        <v>0.1282894659734157</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>38</v>
@@ -2723,19 +2723,19 @@
         <v>37638</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>27059</v>
+        <v>27348</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>50903</v>
+        <v>51143</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.09686791109078492</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06964168854507119</v>
+        <v>0.07038391908701221</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1310064682995337</v>
+        <v>0.131623453293165</v>
       </c>
     </row>
     <row r="32">
@@ -2752,19 +2752,19 @@
         <v>14382</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>9702</v>
+        <v>9739</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>18005</v>
+        <v>18052</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6900965133359701</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4655263905473981</v>
+        <v>0.4673333833909084</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8639462792047584</v>
+        <v>0.8662424121893449</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>263</v>
@@ -2773,19 +2773,19 @@
         <v>268575</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>251670</v>
+        <v>252055</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>283964</v>
+        <v>284931</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.7303938212523119</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6844203886839219</v>
+        <v>0.6854675100605078</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7722443532248408</v>
+        <v>0.7748745733361706</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>278</v>
@@ -2794,19 +2794,19 @@
         <v>282956</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>264141</v>
+        <v>265072</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>300172</v>
+        <v>299788</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7282324824390876</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6798089243916419</v>
+        <v>0.6822055473271302</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7725413474300221</v>
+        <v>0.7715508756799777</v>
       </c>
     </row>
     <row r="33">
@@ -2898,19 +2898,19 @@
         <v>74377</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>59637</v>
+        <v>58575</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>91521</v>
+        <v>90307</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1235170167098142</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.09903836442405377</v>
+        <v>0.09727447124614384</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1519870114445346</v>
+        <v>0.1499710739950407</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>98</v>
@@ -2919,19 +2919,19 @@
         <v>103460</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>85307</v>
+        <v>85730</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>124554</v>
+        <v>123968</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1068492411132026</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08810146126791168</v>
+        <v>0.08853856725266156</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1286334637154148</v>
+        <v>0.1280283891211674</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>174</v>
@@ -2940,19 +2940,19 @@
         <v>177837</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>153438</v>
+        <v>151971</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>205114</v>
+        <v>202879</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1132402249699577</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09770346712220877</v>
+        <v>0.09676933400024471</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1306089553803311</v>
+        <v>0.1291858485473174</v>
       </c>
     </row>
     <row r="35">
@@ -2969,19 +2969,19 @@
         <v>50074</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>37590</v>
+        <v>38098</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65245</v>
+        <v>65630</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.08315717609709276</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.06242531841910864</v>
+        <v>0.06326930507183354</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1083519529863649</v>
+        <v>0.1089902270857589</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>75</v>
@@ -2990,19 +2990,19 @@
         <v>77537</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>62145</v>
+        <v>60984</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>96284</v>
+        <v>94975</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08007685257596721</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06418078540672054</v>
+        <v>0.06298158054561183</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.09943831938667617</v>
+        <v>0.09808587538604113</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>125</v>
@@ -3011,19 +3011,19 @@
         <v>127611</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>106989</v>
+        <v>108079</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>149191</v>
+        <v>152773</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08125795186441084</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06812648496063103</v>
+        <v>0.06882068730584019</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09499951958751492</v>
+        <v>0.09727997892770272</v>
       </c>
     </row>
     <row r="36">
@@ -3040,19 +3040,19 @@
         <v>55455</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41946</v>
+        <v>42084</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>70839</v>
+        <v>69702</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.09209292616186442</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.06965917890314896</v>
+        <v>0.06988883467769916</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1176420286077819</v>
+        <v>0.1157535649407504</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>92</v>
@@ -3061,19 +3061,19 @@
         <v>92841</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>73839</v>
+        <v>75136</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>113537</v>
+        <v>112313</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.09588252486244646</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.07625812400136127</v>
+        <v>0.07759669845042637</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1172555971205964</v>
+        <v>0.1159923482286536</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>149</v>
@@ -3082,19 +3082,19 @@
         <v>148296</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>125762</v>
+        <v>127273</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>170400</v>
+        <v>172216</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.09442946569575579</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.08008061395578744</v>
+        <v>0.08104254956928041</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1085044374879268</v>
+        <v>0.1096605277091124</v>
       </c>
     </row>
     <row r="37">
@@ -3111,19 +3111,19 @@
         <v>422255</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>400974</v>
+        <v>399010</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>443663</v>
+        <v>444133</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7012328810312286</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.665892172202178</v>
+        <v>0.6626308051717521</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7367848142568939</v>
+        <v>0.737566030233771</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>680</v>
@@ -3132,19 +3132,19 @@
         <v>694444</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>665798</v>
+        <v>666045</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>721082</v>
+        <v>723639</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.7171913814483837</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6876069785721091</v>
+        <v>0.6878616894074273</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7447017637665109</v>
+        <v>0.7473423526119863</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1102</v>
@@ -3153,19 +3153,19 @@
         <v>1116699</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1082799</v>
+        <v>1077036</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1152042</v>
+        <v>1153146</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.7110723574698757</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6894858110643962</v>
+        <v>0.6858159918388212</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7335775393199574</v>
+        <v>0.7342804721309923</v>
       </c>
     </row>
     <row r="38">
@@ -3499,19 +3499,19 @@
         <v>8371</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3950</v>
+        <v>4106</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16459</v>
+        <v>15519</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1089005613269006</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.0513818371067242</v>
+        <v>0.0534138514566037</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.214115022788771</v>
+        <v>0.2018918131669205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>7</v>
@@ -3520,19 +3520,19 @@
         <v>6999</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2848</v>
+        <v>2854</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13568</v>
+        <v>13231</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.09109076958748215</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03706093985592662</v>
+        <v>0.03714321378965725</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1765938793752728</v>
+        <v>0.1722016788539547</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -3541,19 +3541,19 @@
         <v>15370</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9195</v>
+        <v>9076</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>24700</v>
+        <v>23795</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09999764252002022</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0598266312713038</v>
+        <v>0.0590476720078367</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1607029066363508</v>
+        <v>0.154816681233511</v>
       </c>
     </row>
     <row r="5">
@@ -3570,19 +3570,19 @@
         <v>4263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1028</v>
+        <v>1014</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>14162</v>
+        <v>11423</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05545307567177724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01337677067612099</v>
+        <v>0.01318530559502775</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1842364454927933</v>
+        <v>0.1486037783527773</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3591,19 +3591,19 @@
         <v>3164</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>930</v>
+        <v>955</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8558</v>
+        <v>8040</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04117390915988332</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01210087220099387</v>
+        <v>0.01243408720273744</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1113885354567579</v>
+        <v>0.1046363405108257</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -3612,19 +3612,19 @@
         <v>7426</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3099</v>
+        <v>3141</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>15827</v>
+        <v>16358</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04831507754437926</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.0201606107198979</v>
+        <v>0.02043259795190024</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1029735897697485</v>
+        <v>0.1064272604789641</v>
       </c>
     </row>
     <row r="6">
@@ -3641,19 +3641,19 @@
         <v>8976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3279</v>
+        <v>3465</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17640</v>
+        <v>19022</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1167774774699206</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04265523738003341</v>
+        <v>0.0450829941551416</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2294791927709196</v>
+        <v>0.247463683492351</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -3662,19 +3662,19 @@
         <v>5159</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>1997</v>
+        <v>2005</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11703</v>
+        <v>11471</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.06713889948344992</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02599030507392298</v>
+        <v>0.02609175497166076</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1523102183480564</v>
+        <v>0.1492906119973101</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -3683,19 +3683,19 @@
         <v>14135</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7582</v>
+        <v>7265</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>24869</v>
+        <v>24533</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09196369884922918</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.04932762255494031</v>
+        <v>0.04726884922073785</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1617994499574909</v>
+        <v>0.1596152435085711</v>
       </c>
     </row>
     <row r="7">
@@ -3712,19 +3712,19 @@
         <v>55258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>45056</v>
+        <v>45057</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>63798</v>
+        <v>63212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7188688855314015</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5861506813689809</v>
+        <v>0.5861555410484987</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8299675332039755</v>
+        <v>0.8223457194694832</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>53</v>
@@ -3733,19 +3733,19 @@
         <v>61513</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>53967</v>
+        <v>53895</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67844</v>
+        <v>67772</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8005964217691847</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7023851529484967</v>
+        <v>0.7014532468460738</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8829972111474044</v>
+        <v>0.8820524039467214</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>103</v>
@@ -3754,19 +3754,19 @@
         <v>116770</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>103148</v>
+        <v>105444</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>126687</v>
+        <v>127329</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7597235810863713</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.6710980983440826</v>
+        <v>0.6860302806315338</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8242456735210456</v>
+        <v>0.828420634475899</v>
       </c>
     </row>
     <row r="8">
@@ -3858,19 +3858,19 @@
         <v>7104</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2930</v>
+        <v>3013</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13698</v>
+        <v>13786</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.07895146866450511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.03256218400674727</v>
+        <v>0.03348059912269295</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1522199920832269</v>
+        <v>0.1531988909451847</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -3879,19 +3879,19 @@
         <v>8825</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4705</v>
+        <v>4664</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>15953</v>
+        <v>16478</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.09319698407507257</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04968325642865451</v>
+        <v>0.04925410194606455</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1684669269854847</v>
+        <v>0.1740139250885188</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>16</v>
@@ -3900,19 +3900,19 @@
         <v>15930</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>9056</v>
+        <v>9740</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24368</v>
+        <v>25286</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08625582798065606</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04903572561452434</v>
+        <v>0.05273954963100551</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1319456417167258</v>
+        <v>0.136916519947829</v>
       </c>
     </row>
     <row r="10">
@@ -3929,19 +3929,19 @@
         <v>3197</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>935</v>
+        <v>943</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8961</v>
+        <v>9028</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03553162918642454</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01039511134434775</v>
+        <v>0.01048217347024699</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09958064029764066</v>
+        <v>0.1003282661064318</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -3950,19 +3950,19 @@
         <v>12280</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6755</v>
+        <v>6260</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20263</v>
+        <v>19861</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1296835160304815</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07133051810767574</v>
+        <v>0.06610786348976354</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2139858720255076</v>
+        <v>0.2097371610744831</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>14</v>
@@ -3971,19 +3971,19 @@
         <v>15478</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>8944</v>
+        <v>8261</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>24754</v>
+        <v>24734</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08380781941064212</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0484300693128504</v>
+        <v>0.04473122882371</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1340393625876831</v>
+        <v>0.1339314059641772</v>
       </c>
     </row>
     <row r="11">
@@ -4000,19 +4000,19 @@
         <v>4166</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>9996</v>
+        <v>10898</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.04629471659275153</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01165417032753681</v>
+        <v>0.01172422109730669</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1110833122553377</v>
+        <v>0.1211140966805703</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>11</v>
@@ -4021,19 +4021,19 @@
         <v>11925</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6315</v>
+        <v>6856</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20407</v>
+        <v>20603</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1259355060116852</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06669038996791314</v>
+        <v>0.07240562932473192</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2155018755225453</v>
+        <v>0.2175774337458028</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>15</v>
@@ -4042,19 +4042,19 @@
         <v>16091</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>9319</v>
+        <v>9608</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>26007</v>
+        <v>26150</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0871303708581125</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0504612807120623</v>
+        <v>0.05202645691577861</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1408227194755327</v>
+        <v>0.1415953100519694</v>
       </c>
     </row>
     <row r="12">
@@ -4071,19 +4071,19 @@
         <v>75517</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>66433</v>
+        <v>65968</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>81449</v>
+        <v>81110</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.8392221855563188</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.738272665355397</v>
+        <v>0.7330999279150091</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9051375494965114</v>
+        <v>0.9013703688890555</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>57</v>
@@ -4092,19 +4092,19 @@
         <v>61663</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50547</v>
+        <v>51550</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>70437</v>
+        <v>70658</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6511839938827607</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5337879998508114</v>
+        <v>0.5443884537102044</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7438373356582272</v>
+        <v>0.746166623268996</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>121</v>
@@ -4113,19 +4113,19 @@
         <v>137181</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>123228</v>
+        <v>125431</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>148721</v>
+        <v>149046</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7428059817505893</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6672556826630134</v>
+        <v>0.67918593297043</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.8052963679350749</v>
+        <v>0.8070570174279945</v>
       </c>
     </row>
     <row r="13">
@@ -4217,19 +4217,19 @@
         <v>27320</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>18919</v>
+        <v>18232</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>38401</v>
+        <v>38062</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1796346313721454</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1243978295860005</v>
+        <v>0.1198782641138162</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2524902001210065</v>
+        <v>0.2502647841836912</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>8</v>
@@ -4238,19 +4238,19 @@
         <v>8225</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>4096</v>
+        <v>3978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>15384</v>
+        <v>14666</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09365992777141262</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04664089884100386</v>
+        <v>0.04530328546840626</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1751792254752328</v>
+        <v>0.1670056347706009</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>33</v>
@@ -4259,19 +4259,19 @@
         <v>35545</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>26474</v>
+        <v>24562</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>49877</v>
+        <v>48478</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1481639004794625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1103544706440548</v>
+        <v>0.1023843183290176</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2079053874300555</v>
+        <v>0.2020728083435255</v>
       </c>
     </row>
     <row r="15">
@@ -4288,19 +4288,19 @@
         <v>9925</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4821</v>
+        <v>4937</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17264</v>
+        <v>17816</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.06525995643685921</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03169976560788759</v>
+        <v>0.03245918179516127</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1135144390294563</v>
+        <v>0.1171445877712376</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -4309,19 +4309,19 @@
         <v>3954</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>986</v>
+        <v>992</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9044</v>
+        <v>8976</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04502383843638012</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01122881677588058</v>
+        <v>0.01130124775659751</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1029854220990225</v>
+        <v>0.1022171581809999</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>14</v>
@@ -4330,19 +4330,19 @@
         <v>13879</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7815</v>
+        <v>7945</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21898</v>
+        <v>22212</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.05785259825783983</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03257619780507473</v>
+        <v>0.03311545219901567</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.09127700790889411</v>
+        <v>0.09258786494694551</v>
       </c>
     </row>
     <row r="16">
@@ -4359,19 +4359,19 @@
         <v>13398</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7098</v>
+        <v>7062</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>22495</v>
+        <v>22814</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08809560333029216</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04667105084587906</v>
+        <v>0.04643091306124875</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1479090376991736</v>
+        <v>0.1500082366640455</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>9</v>
@@ -4380,19 +4380,19 @@
         <v>9597</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4326</v>
+        <v>4940</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>16393</v>
+        <v>17015</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1092858456718885</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04926379376307387</v>
+        <v>0.05624846638135154</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1866792399186458</v>
+        <v>0.1937597476160247</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>21</v>
@@ -4401,19 +4401,19 @@
         <v>22995</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14725</v>
+        <v>13881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35046</v>
+        <v>34162</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09585221529117864</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06137947325460738</v>
+        <v>0.05786030742658854</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1460835370392818</v>
+        <v>0.1423992960086037</v>
       </c>
     </row>
     <row r="17">
@@ -4430,19 +4430,19 @@
         <v>101444</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>89120</v>
+        <v>88911</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113249</v>
+        <v>113216</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6670098088607032</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5859784842198758</v>
+        <v>0.5846015980619617</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7446275415964381</v>
+        <v>0.7444079046209214</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>63</v>
@@ -4451,19 +4451,19 @@
         <v>66040</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>57314</v>
+        <v>57114</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73269</v>
+        <v>73952</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7520303881203187</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6526655748806699</v>
+        <v>0.6503825591156983</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8343413090876222</v>
+        <v>0.8421229932395816</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>156</v>
@@ -4472,19 +4472,19 @@
         <v>167484</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>152251</v>
+        <v>152672</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>181643</v>
+        <v>182718</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6981312859715191</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6346334161599568</v>
+        <v>0.6363882237783459</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7571475306496903</v>
+        <v>0.7616282465305115</v>
       </c>
     </row>
     <row r="18">
@@ -4576,19 +4576,19 @@
         <v>35708</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24489</v>
+        <v>25818</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49247</v>
+        <v>48839</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1264978524940307</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08675411882607344</v>
+        <v>0.09145916041418725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1744584004687205</v>
+        <v>0.1730115367486574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>29</v>
@@ -4597,19 +4597,19 @@
         <v>30593</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20599</v>
+        <v>20816</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>41661</v>
+        <v>41521</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1290643486924044</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.08689934318850953</v>
+        <v>0.08781688485849808</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1757575434719594</v>
+        <v>0.1751672032516657</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>62</v>
@@ -4618,19 +4618,19 @@
         <v>66302</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51823</v>
+        <v>50697</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83920</v>
+        <v>83024</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1276692991370953</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09978936868744165</v>
+        <v>0.09762036621955521</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.161593851104793</v>
+        <v>0.1598686382700184</v>
       </c>
     </row>
     <row r="20">
@@ -4647,19 +4647,19 @@
         <v>14861</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>8467</v>
+        <v>8418</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23991</v>
+        <v>25206</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05264459587098187</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02999315772335295</v>
+        <v>0.02982067299948747</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0849878399778064</v>
+        <v>0.08929217270471318</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>23</v>
@@ -4668,19 +4668,19 @@
         <v>25396</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>16113</v>
+        <v>16735</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36965</v>
+        <v>36079</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1071402901076478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06797783781950983</v>
+        <v>0.07059972513443741</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1559452531636079</v>
+        <v>0.1522091188633738</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>37</v>
@@ -4689,19 +4689,19 @@
         <v>40257</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28801</v>
+        <v>29103</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54072</v>
+        <v>54458</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07751850689234689</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0554587598744754</v>
+        <v>0.05604040168260645</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1041190243063293</v>
+        <v>0.104862736114655</v>
       </c>
     </row>
     <row r="21">
@@ -4718,19 +4718,19 @@
         <v>34346</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24282</v>
+        <v>24521</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47617</v>
+        <v>47010</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1216696450482453</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08601880558528532</v>
+        <v>0.08686652380317278</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1686826968823663</v>
+        <v>0.1665339945451546</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -4739,19 +4739,19 @@
         <v>27136</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>18085</v>
+        <v>18080</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>38045</v>
+        <v>37561</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.114476987732295</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.07629356563409452</v>
+        <v>0.076273700530749</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1605019362693975</v>
+        <v>0.1584596819334594</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -4760,19 +4760,19 @@
         <v>61481</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45917</v>
+        <v>47305</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>78055</v>
+        <v>76798</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1183866422240746</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0884167553192992</v>
+        <v>0.0910904443946688</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1503011103774219</v>
+        <v>0.1478809238111329</v>
       </c>
     </row>
     <row r="22">
@@ -4789,19 +4789,19 @@
         <v>197370</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179579</v>
+        <v>180562</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>211514</v>
+        <v>210959</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.6991879065867421</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.636163256145687</v>
+        <v>0.6396433392464891</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7492934095641807</v>
+        <v>0.7473257772865012</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>141</v>
@@ -4810,19 +4810,19 @@
         <v>153914</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>138427</v>
+        <v>137865</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>169029</v>
+        <v>168449</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6493183734676528</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5839835865406224</v>
+        <v>0.5816119298533547</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7130865603900777</v>
+        <v>0.7106386643472492</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>324</v>
@@ -4831,19 +4831,19 @@
         <v>351284</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>329614</v>
+        <v>328893</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>372616</v>
+        <v>374247</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6764255517464832</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6346989723873465</v>
+        <v>0.6333088972155269</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7175014922904134</v>
+        <v>0.7206421164277786</v>
       </c>
     </row>
     <row r="23">
@@ -4935,19 +4935,19 @@
         <v>10458</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5123</v>
+        <v>5202</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17861</v>
+        <v>17718</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0993672052895179</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04868149393184414</v>
+        <v>0.04943301906343445</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1697101566459591</v>
+        <v>0.1683564366897185</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>20</v>
@@ -4956,19 +4956,19 @@
         <v>21128</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>13538</v>
+        <v>13868</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>32330</v>
+        <v>31909</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0779983028438704</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04997937263464515</v>
+        <v>0.05119647901655566</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1193528506582078</v>
+        <v>0.1177991594976617</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>30</v>
@@ -4977,19 +4977,19 @@
         <v>31586</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>20664</v>
+        <v>21935</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>43112</v>
+        <v>43114</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.08397750571941649</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.05493980020666449</v>
+        <v>0.05832041648502554</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.114623597058043</v>
+        <v>0.1146276235072446</v>
       </c>
     </row>
     <row r="25">
@@ -5006,19 +5006,19 @@
         <v>8660</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>4222</v>
+        <v>4153</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>15601</v>
+        <v>15909</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.08228884706605522</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04011556786802698</v>
+        <v>0.03946376604559088</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1482418812255268</v>
+        <v>0.1511684014514116</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>22</v>
@@ -5027,19 +5027,19 @@
         <v>25039</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>16227</v>
+        <v>16485</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>36336</v>
+        <v>37756</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.09243588931719912</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05990666208415873</v>
+        <v>0.06085821407182122</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1341412007426807</v>
+        <v>0.1393834896427241</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>30</v>
@@ -5048,19 +5048,19 @@
         <v>33699</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>24039</v>
+        <v>23123</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>47191</v>
+        <v>46743</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0895966595364162</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06391360448518438</v>
+        <v>0.06147704493940667</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1254690694399744</v>
+        <v>0.1242765240844955</v>
       </c>
     </row>
     <row r="26">
@@ -5077,19 +5077,19 @@
         <v>11512</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5590</v>
+        <v>6103</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19094</v>
+        <v>19416</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1093877724262701</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05311685533379821</v>
+        <v>0.05798559694415992</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1814320220695241</v>
+        <v>0.1844908535160677</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>35</v>
@@ -5098,19 +5098,19 @@
         <v>38693</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>27766</v>
+        <v>28633</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>50393</v>
+        <v>52460</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1428423233764603</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1025035135284633</v>
+        <v>0.1057029528889926</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1860336767018436</v>
+        <v>0.1936672717281495</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>46</v>
@@ -5119,19 +5119,19 @@
         <v>50205</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>38148</v>
+        <v>38068</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>65078</v>
+        <v>65358</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1334814520003909</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1014252378759406</v>
+        <v>0.1012117995524916</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1730244923583718</v>
+        <v>0.1737697976686263</v>
       </c>
     </row>
     <row r="27">
@@ -5148,19 +5148,19 @@
         <v>74612</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>63974</v>
+        <v>64624</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>83731</v>
+        <v>83474</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7089561752181568</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.6078733597300973</v>
+        <v>0.6140530478830069</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7956002898446536</v>
+        <v>0.7931641016054933</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>176</v>
@@ -5169,19 +5169,19 @@
         <v>186019</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>171230</v>
+        <v>169607</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>199432</v>
+        <v>201305</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6867234844624702</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6321254150710673</v>
+        <v>0.6261340934713865</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7362413551145547</v>
+        <v>0.7431563671472515</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>248</v>
@@ -5190,19 +5190,19 @@
         <v>260630</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>243085</v>
+        <v>242415</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>279273</v>
+        <v>279397</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6929443827437763</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6462951607705669</v>
+        <v>0.6445143529302424</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7425112333747833</v>
+        <v>0.742839884611055</v>
       </c>
     </row>
     <row r="28">
@@ -5294,19 +5294,19 @@
         <v>4918</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1921</v>
+        <v>990</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>12011</v>
+        <v>11293</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1345331002593125</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05253864023382279</v>
+        <v>0.0270725348375157</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3285536519759712</v>
+        <v>0.3089197755853086</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>38</v>
@@ -5315,19 +5315,19 @@
         <v>41112</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29208</v>
+        <v>30719</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>54943</v>
+        <v>55622</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1209934525227604</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08595958552372859</v>
+        <v>0.09040749342193469</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1616991317542099</v>
+        <v>0.1636959470715611</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>42</v>
@@ -5336,19 +5336,19 @@
         <v>46030</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33564</v>
+        <v>34526</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60908</v>
+        <v>60648</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1223086673387773</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08918305269593976</v>
+        <v>0.09174141767680111</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1618399109571804</v>
+        <v>0.1611506793926652</v>
       </c>
     </row>
     <row r="30">
@@ -5368,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>5011</v>
+        <v>5178</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.02750168830707791</v>
@@ -5377,7 +5377,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.137065470960758</v>
+        <v>0.1416311550708937</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>24</v>
@@ -5386,19 +5386,19 @@
         <v>26022</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>17313</v>
+        <v>16695</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>37662</v>
+        <v>37138</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.07658211275343678</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05095150723317574</v>
+        <v>0.0491345902675496</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1108401850761505</v>
+        <v>0.1092970313283008</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>25</v>
@@ -5407,19 +5407,19 @@
         <v>27027</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>17226</v>
+        <v>17260</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>38933</v>
+        <v>37186</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.07181453661968096</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.04577119437882349</v>
+        <v>0.04586180065209979</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1034503975141425</v>
+        <v>0.09880942970611625</v>
       </c>
     </row>
     <row r="31">
@@ -5436,19 +5436,19 @@
         <v>5198</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1963</v>
+        <v>1936</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>10188</v>
+        <v>10781</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1422023416688819</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05368925128167081</v>
+        <v>0.05294474006498634</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2787010794434954</v>
+        <v>0.2949225405759463</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>37</v>
@@ -5457,19 +5457,19 @@
         <v>38659</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27951</v>
+        <v>28351</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>51742</v>
+        <v>50926</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1137753787964343</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08225894450435185</v>
+        <v>0.08343686401844978</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1522768349018867</v>
+        <v>0.1498769772029093</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>42</v>
@@ -5478,19 +5478,19 @@
         <v>43858</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>32499</v>
+        <v>32456</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58958</v>
+        <v>56873</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1165367181954846</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08635342978046071</v>
+        <v>0.08623978250813487</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1566595801603597</v>
+        <v>0.151118052590296</v>
       </c>
     </row>
     <row r="32">
@@ -5507,19 +5507,19 @@
         <v>25435</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18912</v>
+        <v>18853</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>30594</v>
+        <v>30586</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.6957628697647277</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.5173164470406284</v>
+        <v>0.5157284871097059</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8368791587829167</v>
+        <v>0.8366554912358288</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>222</v>
@@ -5528,19 +5528,19 @@
         <v>233994</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>215909</v>
+        <v>214094</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>249826</v>
+        <v>249146</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6886490559273685</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6354241334648306</v>
+        <v>0.630083434664501</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.735241861294321</v>
+        <v>0.7332426440328058</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>247</v>
@@ -5549,19 +5549,19 @@
         <v>259430</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>241143</v>
+        <v>240257</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>278276</v>
+        <v>277541</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.6893400778460571</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6407497349815475</v>
+        <v>0.6383955572466867</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7394162099139174</v>
+        <v>0.7374630254526046</v>
       </c>
     </row>
     <row r="33">
@@ -5653,19 +5653,19 @@
         <v>93880</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>77525</v>
+        <v>76667</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>116085</v>
+        <v>114984</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1263482233389016</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1043376073188363</v>
+        <v>0.1031819047775834</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1562323586667608</v>
+        <v>0.1547515380585112</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>111</v>
@@ -5674,19 +5674,19 @@
         <v>116882</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>98255</v>
+        <v>97406</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>140399</v>
+        <v>139531</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1055800782831895</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.08875388735185137</v>
+        <v>0.08798705167619286</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1268224812513726</v>
+        <v>0.1260385672624257</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>198</v>
@@ -5695,19 +5695,19 @@
         <v>210762</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>182925</v>
+        <v>184539</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>239155</v>
+        <v>238155</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1139209609837178</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.09887433193188273</v>
+        <v>0.09974691541337043</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.129267815903245</v>
+        <v>0.1287276152566816</v>
       </c>
     </row>
     <row r="35">
@@ -5724,19 +5724,19 @@
         <v>41912</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>30141</v>
+        <v>30550</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>57172</v>
+        <v>55967</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.0564066118961431</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0405650972543053</v>
+        <v>0.04111572863589497</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07694549225308918</v>
+        <v>0.07532295150472905</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>87</v>
@@ -5745,19 +5745,19 @@
         <v>95855</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>77170</v>
+        <v>79075</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>116352</v>
+        <v>117560</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.08658568235370785</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.06970810266218887</v>
+        <v>0.0714287402238863</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1051014867779936</v>
+        <v>0.1061917873653334</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>126</v>
@@ -5766,19 +5766,19 @@
         <v>137766</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>115653</v>
+        <v>115101</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>163104</v>
+        <v>162074</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.07446519272777986</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06251272630386263</v>
+        <v>0.06221417274386169</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.08816106254198657</v>
+        <v>0.0876042477808873</v>
       </c>
     </row>
     <row r="36">
@@ -5795,19 +5795,19 @@
         <v>77597</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>59922</v>
+        <v>61827</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>95618</v>
+        <v>97008</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1044335714525473</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08064607376866996</v>
+        <v>0.08321024051745816</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1286869224784674</v>
+        <v>0.1305575303164513</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>122</v>
@@ -5816,19 +5816,19 @@
         <v>131169</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>110196</v>
+        <v>110937</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>156654</v>
+        <v>153398</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1184851218077203</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09953993671866114</v>
+        <v>0.1002096203564845</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1415058278831993</v>
+        <v>0.1385649533637781</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>191</v>
@@ -5837,19 +5837,19 @@
         <v>208765</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>181655</v>
+        <v>180859</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>238250</v>
+        <v>237689</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1128417514942589</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.09818791038795631</v>
+        <v>0.09775784948461706</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1287787598911543</v>
+        <v>0.1284755491051998</v>
       </c>
     </row>
     <row r="37">
@@ -5866,19 +5866,19 @@
         <v>529637</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>501180</v>
+        <v>502920</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>553435</v>
+        <v>555025</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.712811593312408</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6745134179358486</v>
+        <v>0.6768552943500717</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.7448404548458077</v>
+        <v>0.74698060519364</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>712</v>
@@ -5887,19 +5887,19 @@
         <v>763143</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>734496</v>
+        <v>733789</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>796627</v>
+        <v>794125</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6893491175553824</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6634715838921467</v>
+        <v>0.6628333030674086</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.7195951315695156</v>
+        <v>0.7173350948872509</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1199</v>
@@ -5908,19 +5908,19 @@
         <v>1292779</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1252395</v>
+        <v>1254024</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1333762</v>
+        <v>1333424</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6987720947942434</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.676943311415284</v>
+        <v>0.6778242505771975</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7209237413990961</v>
+        <v>0.7207412639713771</v>
       </c>
     </row>
     <row r="38">
@@ -6254,19 +6254,19 @@
         <v>10691</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5081</v>
+        <v>5068</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19744</v>
+        <v>19089</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1116886728999404</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05307857577233915</v>
+        <v>0.05294382537111533</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2062766300207993</v>
+        <v>0.1994252485000065</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>10</v>
@@ -6275,19 +6275,19 @@
         <v>11460</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5854</v>
+        <v>6105</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>19395</v>
+        <v>20091</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1259369222179573</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.06433133256525819</v>
+        <v>0.06708719316874152</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.213136338452315</v>
+        <v>0.220781534847404</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>19</v>
@@ -6296,19 +6296,19 @@
         <v>22151</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14174</v>
+        <v>13522</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>33491</v>
+        <v>33476</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1186327893017214</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0759089081452306</v>
+        <v>0.07242060235610172</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1793687844143096</v>
+        <v>0.1792867642779429</v>
       </c>
     </row>
     <row r="5">
@@ -6325,19 +6325,19 @@
         <v>7656</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3672</v>
+        <v>2863</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15633</v>
+        <v>15364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07998805529340262</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0383634006341293</v>
+        <v>0.02990680560274514</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1633255043270323</v>
+        <v>0.1605158924948132</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -6346,19 +6346,19 @@
         <v>10136</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5241</v>
+        <v>5101</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>17581</v>
+        <v>18398</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1113859126624096</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05759464233966761</v>
+        <v>0.05605445452530822</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1932014861204392</v>
+        <v>0.202173050869922</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -6367,19 +6367,19 @@
         <v>17792</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11008</v>
+        <v>10809</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27621</v>
+        <v>28942</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09529031253711913</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05895675555819673</v>
+        <v>0.0578916343552813</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1479271691713375</v>
+        <v>0.1550039988922079</v>
       </c>
     </row>
     <row r="6">
@@ -6396,19 +6396,19 @@
         <v>13019</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7112</v>
+        <v>6910</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22032</v>
+        <v>22341</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1360160858766008</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07430062648246127</v>
+        <v>0.07218655480125298</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2301758272800616</v>
+        <v>0.2334026394168777</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -6417,19 +6417,19 @@
         <v>10120</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5223</v>
+        <v>4870</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17095</v>
+        <v>17786</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1112052386608353</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.05739654642125194</v>
+        <v>0.05351779873219758</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1878550588087716</v>
+        <v>0.1954454446012937</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -6438,19 +6438,19 @@
         <v>23139</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>14872</v>
+        <v>14673</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35138</v>
+        <v>33467</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1239241153300705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07964776924567191</v>
+        <v>0.07858112118897959</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1881877632011592</v>
+        <v>0.1792393136215276</v>
       </c>
     </row>
     <row r="7">
@@ -6467,19 +6467,19 @@
         <v>64352</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>53885</v>
+        <v>53759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>73794</v>
+        <v>72641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.6723071859300561</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5629508549588544</v>
+        <v>0.5616426687037003</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.77095550440272</v>
+        <v>0.7589071276608401</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -6488,19 +6488,19 @@
         <v>59284</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>49224</v>
+        <v>48623</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>67644</v>
+        <v>68360</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6514719264587978</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5409270052227744</v>
+        <v>0.5343197540329624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7433377800183441</v>
+        <v>0.751203354316672</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>116</v>
@@ -6509,19 +6509,19 @@
         <v>123636</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>109620</v>
+        <v>109673</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>136257</v>
+        <v>136536</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.6621527828310889</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5870890849024717</v>
+        <v>0.5873726815317182</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7297464106441007</v>
+        <v>0.7312424553919618</v>
       </c>
     </row>
     <row r="8">
@@ -6613,19 +6613,19 @@
         <v>9639</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4884</v>
+        <v>4687</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17951</v>
+        <v>16766</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1049828522354985</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05320090478628803</v>
+        <v>0.0510504955286263</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1955177048935549</v>
+        <v>0.1826070855493975</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -6634,19 +6634,19 @@
         <v>18188</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>11688</v>
+        <v>11381</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>28040</v>
+        <v>26711</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2005210058408705</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1288529420245861</v>
+        <v>0.1254727419427765</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3091324706952679</v>
+        <v>0.2944864199011513</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>26</v>
@@ -6655,19 +6655,19 @@
         <v>27827</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>18921</v>
+        <v>19149</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>39846</v>
+        <v>39756</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.152462015426871</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1036674766330608</v>
+        <v>0.1049149591026281</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2183150387872164</v>
+        <v>0.2178186889563415</v>
       </c>
     </row>
     <row r="10">
@@ -6684,19 +6684,19 @@
         <v>3131</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>993</v>
+        <v>1000</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8420</v>
+        <v>9362</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03410590958989385</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01081455410966393</v>
+        <v>0.01089583020024617</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09170574434102502</v>
+        <v>0.1019690982428227</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -6705,19 +6705,19 @@
         <v>9854</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>4611</v>
+        <v>4868</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>17688</v>
+        <v>17283</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1086350978529155</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.05083027307586128</v>
+        <v>0.05367126660950666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1950093293857517</v>
+        <v>0.1905388605643221</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -6726,19 +6726,19 @@
         <v>12985</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6946</v>
+        <v>7301</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21207</v>
+        <v>23168</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07114434249364165</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03805790772179415</v>
+        <v>0.04000348371545152</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1161917690855156</v>
+        <v>0.1269359177226895</v>
       </c>
     </row>
     <row r="11">
@@ -6755,19 +6755,19 @@
         <v>14288</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8067</v>
+        <v>8153</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23289</v>
+        <v>22653</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1556175004055811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0878613215294477</v>
+        <v>0.08880386653874518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.253664354639304</v>
+        <v>0.2467305687072795</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -6776,19 +6776,19 @@
         <v>7951</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3745</v>
+        <v>3877</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14469</v>
+        <v>16035</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08765564674539719</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04129277624270057</v>
+        <v>0.04273966683267556</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1595210423742704</v>
+        <v>0.1767766527896796</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -6797,19 +6797,19 @@
         <v>22238</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>14714</v>
+        <v>14531</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>33785</v>
+        <v>32565</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1218428060143907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.08061698099124287</v>
+        <v>0.07961276410079186</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1851056721610372</v>
+        <v>0.1784196854095027</v>
       </c>
     </row>
     <row r="12">
@@ -6826,19 +6826,19 @@
         <v>64754</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>55665</v>
+        <v>55041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>73170</v>
+        <v>73223</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7052937377690265</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6062947214441806</v>
+        <v>0.5994975861160196</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7969592221177537</v>
+        <v>0.7975344458727774</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>51</v>
@@ -6847,19 +6847,19 @@
         <v>54712</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44871</v>
+        <v>44005</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>63327</v>
+        <v>63311</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6031882495608168</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4946907108209361</v>
+        <v>0.4851423144900422</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6981621416824689</v>
+        <v>0.697988745588905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -6868,19 +6868,19 @@
         <v>119467</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>105369</v>
+        <v>106157</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>132365</v>
+        <v>132162</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6545508360650967</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.577312652089614</v>
+        <v>0.5816298791154423</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7252215469904474</v>
+        <v>0.7241066206697884</v>
       </c>
     </row>
     <row r="13">
@@ -6972,19 +6972,19 @@
         <v>8800</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3823</v>
+        <v>3928</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15874</v>
+        <v>17179</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.05788353108348136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02514980349477571</v>
+        <v>0.02583797546118251</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1044130311616252</v>
+        <v>0.1129981271330479</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6993,19 +6993,19 @@
         <v>6106</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2063</v>
+        <v>2145</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12445</v>
+        <v>12956</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1022522481590871</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03455407966610075</v>
+        <v>0.03592164499956477</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2084100393979705</v>
+        <v>0.2169765723695906</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -7014,19 +7014,19 @@
         <v>14906</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>8038</v>
+        <v>7764</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24780</v>
+        <v>23758</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07039592801692715</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03796293108441181</v>
+        <v>0.03666516276266013</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1170312677358251</v>
+        <v>0.1122013128486597</v>
       </c>
     </row>
     <row r="15">
@@ -7043,19 +7043,19 @@
         <v>19782</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12480</v>
+        <v>12001</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>30019</v>
+        <v>30106</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1301206943045241</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.08208721290897147</v>
+        <v>0.07893934156603326</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1974576082143135</v>
+        <v>0.1980316143725306</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>6</v>
@@ -7064,19 +7064,19 @@
         <v>6415</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2456</v>
+        <v>2239</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>12338</v>
+        <v>13430</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1074360946434384</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04112834287752477</v>
+        <v>0.03750237956495026</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2066139259599755</v>
+        <v>0.2249051357550149</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>24</v>
@@ -7085,19 +7085,19 @@
         <v>26197</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>17177</v>
+        <v>17002</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>37986</v>
+        <v>37019</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1237234231201411</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.08112180978526976</v>
+        <v>0.08029392828013697</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1793994499543577</v>
+        <v>0.1748310359501405</v>
       </c>
     </row>
     <row r="16">
@@ -7114,19 +7114,19 @@
         <v>28155</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19271</v>
+        <v>19452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>38552</v>
+        <v>39066</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1851967116279944</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1267592473033874</v>
+        <v>0.1279479424626421</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2535840651463064</v>
+        <v>0.2569648719221879</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -7135,19 +7135,19 @@
         <v>6121</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2886</v>
+        <v>2885</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12443</v>
+        <v>12353</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.102501353952491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04832387595916363</v>
+        <v>0.0483097202079536</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2083873838387831</v>
+        <v>0.2068670815923321</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -7156,19 +7156,19 @@
         <v>34276</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>24470</v>
+        <v>24341</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>45392</v>
+        <v>45307</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1618758403477638</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1155640027038756</v>
+        <v>0.1149573973216926</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2143770523273717</v>
+        <v>0.2139737327687542</v>
       </c>
     </row>
     <row r="17">
@@ -7185,19 +7185,19 @@
         <v>95291</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>82680</v>
+        <v>82595</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106470</v>
+        <v>106652</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6267990629840002</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5438478865152188</v>
+        <v>0.5432904123441091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7003291081315483</v>
+        <v>0.7015299367991311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>38</v>
@@ -7206,19 +7206,19 @@
         <v>41071</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>33990</v>
+        <v>32481</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>47438</v>
+        <v>47061</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6878103032449835</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5692156782515441</v>
+        <v>0.5439447272904445</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7944293583111981</v>
+        <v>0.7881142343597607</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>131</v>
@@ -7227,19 +7227,19 @@
         <v>136362</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>121844</v>
+        <v>120952</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>149871</v>
+        <v>150791</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6440048085151679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5754386065139608</v>
+        <v>0.5712246846502135</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7078024465732125</v>
+        <v>0.7121485590341459</v>
       </c>
     </row>
     <row r="18">
@@ -7331,19 +7331,19 @@
         <v>36730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>26412</v>
+        <v>26266</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>50156</v>
+        <v>50950</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1317623533496825</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09475049636655562</v>
+        <v>0.09422449817037314</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1799282428402453</v>
+        <v>0.182776466783325</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -7352,19 +7352,19 @@
         <v>28976</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>20293</v>
+        <v>20257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>40613</v>
+        <v>40936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1131061040399927</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.07921453681082784</v>
+        <v>0.07907194940280808</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.15853090806457</v>
+        <v>0.1597909443399849</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -7373,19 +7373,19 @@
         <v>65706</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>51324</v>
+        <v>51483</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83398</v>
+        <v>83344</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1228278573334157</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09594277321333691</v>
+        <v>0.09624030748623892</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1559022116807394</v>
+        <v>0.1557995147059151</v>
       </c>
     </row>
     <row r="20">
@@ -7402,19 +7402,19 @@
         <v>11157</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5932</v>
+        <v>6052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>19263</v>
+        <v>19486</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04002419793866305</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02127921097930156</v>
+        <v>0.02171076532758475</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0691035650490429</v>
+        <v>0.06990157880392009</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>25</v>
@@ -7423,19 +7423,19 @@
         <v>28425</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>18757</v>
+        <v>18910</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>41907</v>
+        <v>40047</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1109560660908821</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.07321872598578964</v>
+        <v>0.07381250062113631</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1635808040132875</v>
+        <v>0.1563193291290759</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>36</v>
@@ -7444,19 +7444,19 @@
         <v>39582</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>28445</v>
+        <v>28693</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>54547</v>
+        <v>54489</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07399353887704804</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05317386718674572</v>
+        <v>0.05363770760077383</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1019678976737729</v>
+        <v>0.1018596236110484</v>
       </c>
     </row>
     <row r="21">
@@ -7473,19 +7473,19 @@
         <v>30491</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>20350</v>
+        <v>20987</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>41327</v>
+        <v>41889</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1093820429968436</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.07300211507472978</v>
+        <v>0.07528903528515483</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.148254896962203</v>
+        <v>0.1502722764720218</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>34</v>
@@ -7494,19 +7494,19 @@
         <v>34549</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24894</v>
+        <v>23756</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46766</v>
+        <v>46325</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1348586558070033</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09717184925557103</v>
+        <v>0.09273176988084678</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1825497280886293</v>
+        <v>0.1808260781711482</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -7515,19 +7515,19 @@
         <v>65040</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>51777</v>
+        <v>51810</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>80975</v>
+        <v>83694</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1215828177550432</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09679025700466745</v>
+        <v>0.09685163706964654</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1513709990259368</v>
+        <v>0.1564546530687718</v>
       </c>
     </row>
     <row r="22">
@@ -7544,19 +7544,19 @@
         <v>200379</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>184225</v>
+        <v>181747</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>214163</v>
+        <v>213476</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7188314057148109</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.6608814385157863</v>
+        <v>0.6519920016399349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7682778669753145</v>
+        <v>0.765814509989991</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>156</v>
@@ -7565,19 +7565,19 @@
         <v>164234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>147794</v>
+        <v>149647</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>178986</v>
+        <v>179460</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.641079174062122</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5769075685006356</v>
+        <v>0.5841397497322733</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.698663718396155</v>
+        <v>0.7005117550298882</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>348</v>
@@ -7586,19 +7586,19 @@
         <v>364614</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>343054</v>
+        <v>340341</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>386667</v>
+        <v>385890</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.681595786034493</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6412925349262426</v>
+        <v>0.6362212249272471</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7228225902721979</v>
+        <v>0.7213700120246896</v>
       </c>
     </row>
     <row r="23">
@@ -7690,19 +7690,19 @@
         <v>19393</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>13071</v>
+        <v>12301</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>29491</v>
+        <v>29862</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1233340784615281</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0831301828089431</v>
+        <v>0.07823164454771264</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1875537061139112</v>
+        <v>0.1899140201940567</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>30</v>
@@ -7711,19 +7711,19 @@
         <v>33396</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>23324</v>
+        <v>22949</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>46426</v>
+        <v>45982</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1328887644593956</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.09280910464440641</v>
+        <v>0.09131859301021349</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.184738782961563</v>
+        <v>0.1829717832544831</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>49</v>
@@ -7732,19 +7732,19 @@
         <v>52789</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>40612</v>
+        <v>40031</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>66864</v>
+        <v>66932</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.12921141951773</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0994069781670113</v>
+        <v>0.09798519808658422</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1636644403140683</v>
+        <v>0.1638298349752997</v>
       </c>
     </row>
     <row r="25">
@@ -7761,19 +7761,19 @@
         <v>5713</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1366</v>
+        <v>1994</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>12581</v>
+        <v>12305</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.03633118168993392</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.008689067416618653</v>
+        <v>0.01267876239982336</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08001373700775716</v>
+        <v>0.07825534360477956</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>20</v>
@@ -7782,19 +7782,19 @@
         <v>21187</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>13679</v>
+        <v>13866</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>31715</v>
+        <v>31725</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08430651850108518</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05443142875619569</v>
+        <v>0.05517741237671581</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1261983262306435</v>
+        <v>0.1262395023137254</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>25</v>
@@ -7803,19 +7803,19 @@
         <v>26899</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>18265</v>
+        <v>17004</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>38529</v>
+        <v>38281</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06584208521813203</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04470640526822216</v>
+        <v>0.04162148080871937</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.09430839783116249</v>
+        <v>0.09369997496469941</v>
       </c>
     </row>
     <row r="26">
@@ -7832,19 +7832,19 @@
         <v>16171</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10149</v>
+        <v>9043</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>26661</v>
+        <v>25542</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1028417690387444</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.06454509159158392</v>
+        <v>0.05751427162981773</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.169560582538718</v>
+        <v>0.1624430354140063</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>26</v>
@@ -7853,19 +7853,19 @@
         <v>27341</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>18703</v>
+        <v>18280</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>38350</v>
+        <v>38119</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1087938108447757</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07442362494230162</v>
+        <v>0.07274130340298847</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1526011355856587</v>
+        <v>0.1516811947441863</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>41</v>
@@ -7874,19 +7874,19 @@
         <v>43511</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31970</v>
+        <v>32078</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>58334</v>
+        <v>57087</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1065030279940492</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07825452338145431</v>
+        <v>0.0785169354592174</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1427838480943495</v>
+        <v>0.1397315773065434</v>
       </c>
     </row>
     <row r="27">
@@ -7903,19 +7903,19 @@
         <v>115962</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>104092</v>
+        <v>104773</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>126423</v>
+        <v>126719</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7374929708097937</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.662002888511481</v>
+        <v>0.6663363917301598</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8040224063669636</v>
+        <v>0.8059086503296735</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>160</v>
@@ -7924,19 +7924,19 @@
         <v>169384</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>153855</v>
+        <v>153303</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>182692</v>
+        <v>185413</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6740109061947435</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6122177955162202</v>
+        <v>0.6100245253538485</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.7269688375941051</v>
+        <v>0.7377946796710992</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>274</v>
@@ -7945,19 +7945,19 @@
         <v>285346</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>265306</v>
+        <v>265974</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>303616</v>
+        <v>303484</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.6984434672700888</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6493913917021051</v>
+        <v>0.6510282787277558</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.7431629919479495</v>
+        <v>0.7428411275942656</v>
       </c>
     </row>
     <row r="28">
@@ -8049,19 +8049,19 @@
         <v>3166</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1027</v>
+        <v>1018</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>8659</v>
+        <v>8361</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.07776980676690989</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.0252191295394829</v>
+        <v>0.025011392272742</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2127206972713083</v>
+        <v>0.2054179767894568</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>35</v>
@@ -8070,19 +8070,19 @@
         <v>40747</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>29218</v>
+        <v>29565</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53686</v>
+        <v>54485</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1150434099920967</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0824917162011297</v>
+        <v>0.08347280455564296</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1515736360016214</v>
+        <v>0.1538305764742382</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -8091,19 +8091,19 @@
         <v>43913</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>32600</v>
+        <v>31501</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60442</v>
+        <v>59423</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1112014140036543</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.08255520289622571</v>
+        <v>0.0797703654000157</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1530597231587531</v>
+        <v>0.1504789467311949</v>
       </c>
     </row>
     <row r="30">
@@ -8123,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6209</v>
+        <v>5366</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04330022606253464</v>
@@ -8132,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1525308700332267</v>
+        <v>0.1318322590967831</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>28</v>
@@ -8141,19 +8141,19 @@
         <v>30521</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>20885</v>
+        <v>20605</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>41723</v>
+        <v>43671</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.08617066299987515</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.05896587049547956</v>
+        <v>0.05817543398721972</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1177989505418817</v>
+        <v>0.1232997309357345</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>30</v>
@@ -8162,19 +8162,19 @@
         <v>32283</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>22149</v>
+        <v>22006</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>43862</v>
+        <v>45341</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.08175177047314636</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.05608818567970175</v>
+        <v>0.05572672308163552</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1110722174237639</v>
+        <v>0.1148177252823923</v>
       </c>
     </row>
     <row r="31">
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6630</v>
+        <v>6536</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.0530228889860801</v>
@@ -8203,7 +8203,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1628760844078519</v>
+        <v>0.1605618339456343</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>34</v>
@@ -8212,19 +8212,19 @@
         <v>37854</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>27601</v>
+        <v>27250</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>52198</v>
+        <v>51355</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.106875596360032</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07792618210979284</v>
+        <v>0.07693499516177739</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1473731219147771</v>
+        <v>0.1449923933529009</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>36</v>
@@ -8233,19 +8233,19 @@
         <v>40012</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>29225</v>
+        <v>28611</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>54043</v>
+        <v>53306</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1013247006109011</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.07400693849751321</v>
+        <v>0.0724534929822232</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1368556904982375</v>
+        <v>0.1349886487501381</v>
       </c>
     </row>
     <row r="32">
@@ -8262,7 +8262,7 @@
         <v>33618</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>27649</v>
+        <v>27346</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>37639</v>
@@ -8271,10 +8271,10 @@
         <v>0.8259070781844754</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.6792588929043691</v>
+        <v>0.6718157318947885</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.9247050816472449</v>
+        <v>0.9246883643946515</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>219</v>
@@ -8283,19 +8283,19 @@
         <v>245067</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>227091</v>
+        <v>226533</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>262454</v>
+        <v>262164</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.6919103306479962</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6411581129683201</v>
+        <v>0.6395832596503513</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7409999241522313</v>
+        <v>0.7401822072909475</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>252</v>
@@ -8304,19 +8304,19 @@
         <v>278685</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>257547</v>
+        <v>259549</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>297745</v>
+        <v>297447</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.7057221149122983</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.6521944147453236</v>
+        <v>0.657264312474042</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7539881150001927</v>
+        <v>0.7532337536311401</v>
       </c>
     </row>
     <row r="33">
@@ -8408,19 +8408,19 @@
         <v>88417</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>71854</v>
+        <v>70956</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>108354</v>
+        <v>109063</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1083203416077474</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.08802858296415721</v>
+        <v>0.08692838972958122</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1327450841154197</v>
+        <v>0.1336132769522018</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>126</v>
@@ -8429,19 +8429,19 @@
         <v>138873</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>118870</v>
+        <v>116759</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>164823</v>
+        <v>164915</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.1258938375136558</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.107760252658635</v>
+        <v>0.1058467204247746</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.1494179082712173</v>
+        <v>0.1495015687158657</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>207</v>
@@ -8450,19 +8450,19 @@
         <v>227291</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>198378</v>
+        <v>197348</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>254880</v>
+        <v>258741</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1184202334061178</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1033567534974148</v>
+        <v>0.1028200396665229</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.1327943943194393</v>
+        <v>0.1348063291185339</v>
       </c>
     </row>
     <row r="35">
@@ -8479,19 +8479,19 @@
         <v>49202</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>35808</v>
+        <v>36181</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>65096</v>
+        <v>64891</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.06027732204917589</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.04386902944287006</v>
+        <v>0.04432562658396894</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.07974886286276116</v>
+        <v>0.07949769866537168</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>97</v>
@@ -8500,19 +8500,19 @@
         <v>106538</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>85252</v>
+        <v>87316</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>127838</v>
+        <v>130306</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09658061250202339</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0772842333776429</v>
+        <v>0.07915521423451154</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1158899166263569</v>
+        <v>0.1181276840811039</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>143</v>
@@ -8521,19 +8521,19 @@
         <v>155740</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>130926</v>
+        <v>132675</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>181865</v>
+        <v>183036</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.08114165703760007</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.06821360306269442</v>
+        <v>0.06912466438520376</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09475319642582036</v>
+        <v>0.09536344561692506</v>
       </c>
     </row>
     <row r="36">
@@ -8550,19 +8550,19 @@
         <v>104282</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>86262</v>
+        <v>86906</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>125751</v>
+        <v>124932</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1277560312087184</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1056803256042757</v>
+        <v>0.1064689697190167</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1540585092481126</v>
+        <v>0.1530547127426224</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>118</v>
@@ -8571,19 +8571,19 @@
         <v>123935</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>102537</v>
+        <v>103176</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>145581</v>
+        <v>144124</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.112351381118075</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.09295370664909093</v>
+        <v>0.09353286666573539</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1319749528682577</v>
+        <v>0.1306540901922211</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>216</v>
@@ -8592,19 +8592,19 @@
         <v>228216</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>200244</v>
+        <v>198434</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>261244</v>
+        <v>254201</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1189026249234644</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.104328725282743</v>
+        <v>0.1033858471084805</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1361101408411254</v>
+        <v>0.1324409294321354</v>
       </c>
     </row>
     <row r="37">
@@ -8621,19 +8621,19 @@
         <v>574357</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>546604</v>
+        <v>546342</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>601352</v>
+        <v>602214</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.7036463051343583</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.6696461754605998</v>
+        <v>0.6693252415587562</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.736717950361402</v>
+        <v>0.7377742641846726</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>680</v>
@@ -8642,19 +8642,19 @@
         <v>733752</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>701227</v>
+        <v>701832</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>763503</v>
+        <v>769764</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.6651741688662458</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6356890755934046</v>
+        <v>0.6362370172994771</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.6921446285763647</v>
+        <v>0.6978201201237361</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1234</v>
@@ -8663,19 +8663,19 @@
         <v>1308109</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1268206</v>
+        <v>1266515</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1351374</v>
+        <v>1349639</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6815354846328178</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.660745518010587</v>
+        <v>0.6598646761564803</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7040765664734259</v>
+        <v>0.7031728809028649</v>
       </c>
     </row>
     <row r="38">
@@ -9009,19 +9009,19 @@
         <v>31238</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21655</v>
+        <v>22523</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42756</v>
+        <v>43155</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2525088727540751</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1750473734901616</v>
+        <v>0.1820631213302727</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3456055000857335</v>
+        <v>0.3488376037444205</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -9030,19 +9030,19 @@
         <v>23534</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17086</v>
+        <v>16519</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31087</v>
+        <v>31354</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2063657530045897</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1498261908457335</v>
+        <v>0.1448538236209023</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2725935238555773</v>
+        <v>0.2749299112837226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -9051,19 +9051,19 @@
         <v>54773</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>42344</v>
+        <v>43812</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67201</v>
+        <v>69923</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2303756663375224</v>
+        <v>0.2303756663375223</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1781001956614289</v>
+        <v>0.1842754804818064</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2826494692081671</v>
+        <v>0.2941004476080833</v>
       </c>
     </row>
     <row r="5">
@@ -9080,19 +9080,19 @@
         <v>37031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>27392</v>
+        <v>27954</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>47829</v>
+        <v>47646</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2993290315734702</v>
+        <v>0.2993290315734701</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2214208001795467</v>
+        <v>0.2259603159770733</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3866151627624049</v>
+        <v>0.3851330689926291</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>43</v>
@@ -9101,19 +9101,19 @@
         <v>29752</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22361</v>
+        <v>22272</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37726</v>
+        <v>38210</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2608902157728291</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1960753260217869</v>
+        <v>0.1952961814218895</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3308079706766925</v>
+        <v>0.3350479412983168</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>83</v>
@@ -9122,19 +9122,19 @@
         <v>66783</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>53477</v>
+        <v>54040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>80633</v>
+        <v>80174</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2808913045809661</v>
+        <v>0.280891304580966</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2249270904641961</v>
+        <v>0.2272956733849796</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3391466325961076</v>
+        <v>0.3372152059375791</v>
       </c>
     </row>
     <row r="6">
@@ -9151,19 +9151,19 @@
         <v>21922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14422</v>
+        <v>14622</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>31016</v>
+        <v>32032</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1772025742081546</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1165744648034356</v>
+        <v>0.1181901135144062</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2507108514456338</v>
+        <v>0.2589253216648451</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>27</v>
@@ -9172,19 +9172,19 @@
         <v>18592</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13300</v>
+        <v>13261</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>26841</v>
+        <v>27094</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1630299554545782</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.116625055245275</v>
+        <v>0.1162795212049526</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2353646061889031</v>
+        <v>0.2375814513832967</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -9193,19 +9193,19 @@
         <v>40514</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>30742</v>
+        <v>30852</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>51918</v>
+        <v>52841</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1704044752057673</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1293017400579989</v>
+        <v>0.1297668119270835</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2183706978704699</v>
+        <v>0.2222536793775091</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>33521</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23739</v>
+        <v>22600</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46939</v>
+        <v>45748</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2709595214643</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.191889434900667</v>
+        <v>0.1826813777207431</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3794221947577786</v>
+        <v>0.3697931930546282</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>59</v>
@@ -9243,19 +9243,19 @@
         <v>42163</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33672</v>
+        <v>33969</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50417</v>
+        <v>51464</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.369714075768003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2952568762111539</v>
+        <v>0.2978672367389206</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4420902845303681</v>
+        <v>0.4512694763889911</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>88</v>
@@ -9264,19 +9264,19 @@
         <v>75684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>62262</v>
+        <v>62055</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>90498</v>
+        <v>91094</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3183285538757443</v>
+        <v>0.3183285538757442</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2618768760487831</v>
+        <v>0.2610081514236385</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3806385102842101</v>
+        <v>0.3831473511692999</v>
       </c>
     </row>
     <row r="8">
@@ -9368,19 +9368,19 @@
         <v>17208</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10756</v>
+        <v>11231</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>24742</v>
+        <v>25063</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1806590787992887</v>
+        <v>0.1806590787992888</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1129290686524003</v>
+        <v>0.1179073166014252</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.259756214563153</v>
+        <v>0.2631239714196522</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -9389,19 +9389,19 @@
         <v>16442</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10769</v>
+        <v>10827</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>23292</v>
+        <v>22895</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1714805777841173</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1123090954216949</v>
+        <v>0.1129130695996345</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2429165599822649</v>
+        <v>0.2387750761644488</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -9410,19 +9410,19 @@
         <v>33650</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>25092</v>
+        <v>25079</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>43368</v>
+        <v>43980</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1760545773296815</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1312802240188094</v>
+        <v>0.1312090973343134</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2268984079531145</v>
+        <v>0.2301006156418913</v>
       </c>
     </row>
     <row r="10">
@@ -9439,19 +9439,19 @@
         <v>31078</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23292</v>
+        <v>23279</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>40898</v>
+        <v>41312</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3262804927308379</v>
+        <v>0.326280492730838</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2445365592862141</v>
+        <v>0.2444024398214193</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4293741307434225</v>
+        <v>0.4337210537055505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -9460,19 +9460,19 @@
         <v>35331</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27735</v>
+        <v>28250</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>43863</v>
+        <v>43778</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3684737191500544</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2892548458229566</v>
+        <v>0.2946190172996928</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4574570566773326</v>
+        <v>0.456562736573959</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>85</v>
@@ -9481,19 +9481,19 @@
         <v>66409</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>55670</v>
+        <v>54240</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>79136</v>
+        <v>78466</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.3474472140433512</v>
+        <v>0.3474472140433511</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2912627057440718</v>
+        <v>0.2837783418151504</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4140307741861344</v>
+        <v>0.4105249550299166</v>
       </c>
     </row>
     <row r="11">
@@ -9510,19 +9510,19 @@
         <v>14294</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7964</v>
+        <v>7633</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23809</v>
+        <v>23407</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1500686169710905</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08361175725189647</v>
+        <v>0.0801368771202088</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2499658773275966</v>
+        <v>0.2457379144480284</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -9531,19 +9531,19 @@
         <v>13154</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8758</v>
+        <v>8386</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>20400</v>
+        <v>19112</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1371821463203405</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09134027396875251</v>
+        <v>0.08746250108752172</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2127499600411748</v>
+        <v>0.1993216221684458</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>34</v>
@@ -9552,19 +9552,19 @@
         <v>27448</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>19645</v>
+        <v>19728</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38139</v>
+        <v>38153</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1436039695355942</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1027790929253573</v>
+        <v>0.103212713172782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1995383272451758</v>
+        <v>0.1996120807408113</v>
       </c>
     </row>
     <row r="12">
@@ -9581,19 +9581,19 @@
         <v>32670</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>24042</v>
+        <v>24504</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>41783</v>
+        <v>42395</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3429918114987827</v>
+        <v>0.3429918114987828</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2524117668367423</v>
+        <v>0.2572616781996244</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4386677292599275</v>
+        <v>0.445091053759525</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>42</v>
@@ -9602,19 +9602,19 @@
         <v>30958</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>22892</v>
+        <v>23469</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>39416</v>
+        <v>39444</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.3228635567454877</v>
+        <v>0.3228635567454878</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2387458778699254</v>
+        <v>0.24475957094149</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4110717137089213</v>
+        <v>0.411364348481261</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>80</v>
@@ -9623,19 +9623,19 @@
         <v>63628</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>51919</v>
+        <v>51463</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>75142</v>
+        <v>75086</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3328942390913732</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2716340303783969</v>
+        <v>0.2692517339549428</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3931337619188646</v>
+        <v>0.3928442141346183</v>
       </c>
     </row>
     <row r="13">
@@ -9727,19 +9727,19 @@
         <v>14665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8835</v>
+        <v>8833</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>23468</v>
+        <v>22607</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1561333711091491</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09406497982943889</v>
+        <v>0.0940428081733322</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2498479380376288</v>
+        <v>0.2406825956844658</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>18</v>
@@ -9748,19 +9748,19 @@
         <v>12582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>7783</v>
+        <v>8165</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18229</v>
+        <v>18673</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.2376426592983635</v>
+        <v>0.2376426592983634</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1470057609796708</v>
+        <v>0.1542272530626406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.344316605932696</v>
+        <v>0.3527044031909874</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>35</v>
@@ -9769,19 +9769,19 @@
         <v>27247</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18845</v>
+        <v>19619</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>36126</v>
+        <v>37531</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1855149450512192</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1283093216672257</v>
+        <v>0.1335813929892714</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2459728239632185</v>
+        <v>0.2555370729329561</v>
       </c>
     </row>
     <row r="15">
@@ -9798,19 +9798,19 @@
         <v>26464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>18860</v>
+        <v>18459</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>35937</v>
+        <v>35637</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2817428152880797</v>
+        <v>0.2817428152880796</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2007853746112457</v>
+        <v>0.196516209500649</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3825940218892616</v>
+        <v>0.3794063372776247</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>21</v>
@@ -9819,19 +9819,19 @@
         <v>14238</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9363</v>
+        <v>9198</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>20191</v>
+        <v>20255</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2689372892222169</v>
+        <v>0.2689372892222168</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1768470251947893</v>
+        <v>0.1737432534193746</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3813769831760768</v>
+        <v>0.382582777439218</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -9840,19 +9840,19 @@
         <v>40702</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>31150</v>
+        <v>31448</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>52912</v>
+        <v>50960</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.277126819745365</v>
+        <v>0.2771268197453651</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.2120887076998643</v>
+        <v>0.2141207966863696</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3602650412887562</v>
+        <v>0.3469733699019011</v>
       </c>
     </row>
     <row r="16">
@@ -9869,19 +9869,19 @@
         <v>18590</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11739</v>
+        <v>11729</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27209</v>
+        <v>27295</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1979190400819791</v>
+        <v>0.197919040081979</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.124976728901832</v>
+        <v>0.1248759741103594</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2896815242748925</v>
+        <v>0.2905945833158555</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>13</v>
@@ -9890,19 +9890,19 @@
         <v>7844</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>4603</v>
+        <v>4307</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12795</v>
+        <v>12607</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.148152196829122</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08694122219466516</v>
+        <v>0.08135266925534725</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2416718174534944</v>
+        <v>0.2381176245509724</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -9911,19 +9911,19 @@
         <v>26434</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18855</v>
+        <v>19268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>35374</v>
+        <v>36729</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1799796344340872</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.128375338483554</v>
+        <v>0.1311931850597707</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2408528201847057</v>
+        <v>0.250076471837179</v>
       </c>
     </row>
     <row r="17">
@@ -9940,19 +9940,19 @@
         <v>34209</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24501</v>
+        <v>24890</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>44614</v>
+        <v>44936</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3642047735207923</v>
+        <v>0.3642047735207922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2608483247379264</v>
+        <v>0.2649905509638108</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4749749238452753</v>
+        <v>0.4784044994054832</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>26</v>
@@ -9961,19 +9961,19 @@
         <v>18280</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12323</v>
+        <v>12261</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>25327</v>
+        <v>25057</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.3452678546502979</v>
+        <v>0.3452678546502978</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2327639105789404</v>
+        <v>0.2315819506101015</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4783752439031889</v>
+        <v>0.4732877286823153</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>61</v>
@@ -9982,19 +9982,19 @@
         <v>52489</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>41243</v>
+        <v>40845</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>64142</v>
+        <v>63379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3573786007693286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2808089223126249</v>
+        <v>0.2781018597584423</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4367245746578822</v>
+        <v>0.4315290503002017</v>
       </c>
     </row>
     <row r="18">
@@ -10086,19 +10086,19 @@
         <v>35128</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24361</v>
+        <v>24810</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>46414</v>
+        <v>46357</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1637090735008828</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1135319685469314</v>
+        <v>0.1156249025260936</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2163086538044872</v>
+        <v>0.2160391071482594</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>63</v>
@@ -10107,19 +10107,19 @@
         <v>44199</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>34741</v>
+        <v>35186</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54771</v>
+        <v>55545</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.2201562966522968</v>
+        <v>0.2201562966522969</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1730425325477498</v>
+        <v>0.1752615983193996</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2728159653816941</v>
+        <v>0.2766701880920252</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>100</v>
@@ -10128,19 +10128,19 @@
         <v>79327</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>65149</v>
+        <v>65031</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>95685</v>
+        <v>95349</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1909941243684743</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1568569749004317</v>
+        <v>0.1565741956682242</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2303777574830251</v>
+        <v>0.2295692807046011</v>
       </c>
     </row>
     <row r="20">
@@ -10157,19 +10157,19 @@
         <v>63550</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>50795</v>
+        <v>49925</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78624</v>
+        <v>77716</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2961672136175498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2367234084885621</v>
+        <v>0.2326695016490564</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3664189862764601</v>
+        <v>0.3621865089702608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>82</v>
@@ -10178,19 +10178,19 @@
         <v>57916</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>47246</v>
+        <v>47396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>69004</v>
+        <v>69191</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2884791364882513</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2353314824072958</v>
+        <v>0.2360789715316032</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3437070667695963</v>
+        <v>0.3446385833834793</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>148</v>
@@ -10199,19 +10199,19 @@
         <v>121466</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>104762</v>
+        <v>103656</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>140151</v>
+        <v>140726</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.292451006444981</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.252233383503201</v>
+        <v>0.2495706087055951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3374381905342382</v>
+        <v>0.3388222545192753</v>
       </c>
     </row>
     <row r="21">
@@ -10228,19 +10228,19 @@
         <v>39627</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28483</v>
+        <v>29363</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53674</v>
+        <v>53961</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1846774600372652</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1327391604331314</v>
+        <v>0.1368442530423712</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2501411296858237</v>
+        <v>0.2514793123671392</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>48</v>
@@ -10249,19 +10249,19 @@
         <v>38084</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>28295</v>
+        <v>29704</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>49557</v>
+        <v>49835</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1896974843379415</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1409374706621202</v>
+        <v>0.1479537283672917</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2468429269876022</v>
+        <v>0.248226979366141</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>91</v>
@@ -10270,19 +10270,19 @@
         <v>77712</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>62973</v>
+        <v>63756</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>94444</v>
+        <v>94617</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1871040031115469</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1516176335475466</v>
+        <v>0.1535030647331853</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2273899853563166</v>
+        <v>0.2278067797334473</v>
       </c>
     </row>
     <row r="22">
@@ -10299,19 +10299,19 @@
         <v>76270</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>62734</v>
+        <v>62755</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>92517</v>
+        <v>91699</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.3554462528443023</v>
+        <v>0.3554462528443022</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2923649178172274</v>
+        <v>0.2924628081627356</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.431164343317006</v>
+        <v>0.4273535882354406</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>94</v>
@@ -10320,19 +10320,19 @@
         <v>60564</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>50232</v>
+        <v>49047</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>72938</v>
+        <v>72544</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3016670825215103</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2502044574840311</v>
+        <v>0.2443045731278997</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3633055928776563</v>
+        <v>0.3613402117277794</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>171</v>
@@ -10341,19 +10341,19 @@
         <v>136834</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>120116</v>
+        <v>118824</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>158629</v>
+        <v>156904</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.3294508660749977</v>
+        <v>0.3294508660749976</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2891997969187758</v>
+        <v>0.2860883641236557</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3819261680522986</v>
+        <v>0.3777739006692771</v>
       </c>
     </row>
     <row r="23">
@@ -10445,19 +10445,19 @@
         <v>16834</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10992</v>
+        <v>10760</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25676</v>
+        <v>25571</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1835615574885642</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1198625109244385</v>
+        <v>0.1173222670536908</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2799734570973894</v>
+        <v>0.2788224497851103</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>64</v>
@@ -10466,19 +10466,19 @@
         <v>39528</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>31325</v>
+        <v>31338</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>49483</v>
+        <v>49746</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.194092124879564</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1538113316238406</v>
+        <v>0.153876132169118</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2429731664351894</v>
+        <v>0.2442663968227234</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>83</v>
@@ -10487,19 +10487,19 @@
         <v>56362</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>45714</v>
+        <v>46117</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>68344</v>
+        <v>68864</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.190822463030146</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1547703626325717</v>
+        <v>0.1561365768609739</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.23138943022524</v>
+        <v>0.2331478422587935</v>
       </c>
     </row>
     <row r="25">
@@ -10516,19 +10516,19 @@
         <v>23319</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>15918</v>
+        <v>16078</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>32576</v>
+        <v>32440</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2542665806546849</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1735684814050356</v>
+        <v>0.1753120944561188</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3552053938687434</v>
+        <v>0.3537228082997917</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>97</v>
@@ -10537,19 +10537,19 @@
         <v>62507</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>52478</v>
+        <v>52182</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>73712</v>
+        <v>73814</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3069230567012949</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2576792933089064</v>
+        <v>0.2562282799267009</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3619421144808335</v>
+        <v>0.3624449940160432</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>121</v>
@@ -10558,19 +10558,19 @@
         <v>85825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>73302</v>
+        <v>73109</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>100791</v>
+        <v>100035</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.2905736175436723</v>
+        <v>0.2905736175436724</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2481757240130379</v>
+        <v>0.247519620530385</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.341242323581971</v>
+        <v>0.3386818172745344</v>
       </c>
     </row>
     <row r="26">
@@ -10587,19 +10587,19 @@
         <v>20386</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>12700</v>
+        <v>12449</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>29184</v>
+        <v>29016</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2222884190804643</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1384776893766944</v>
+        <v>0.1357462944591009</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3182201977132303</v>
+        <v>0.3163954939553503</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>63</v>
@@ -10608,19 +10608,19 @@
         <v>39000</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>29489</v>
+        <v>30214</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>48072</v>
+        <v>49344</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1914989784483847</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1447974641624118</v>
+        <v>0.1483575245452676</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.236045741275113</v>
+        <v>0.242290050000973</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>84</v>
@@ -10629,19 +10629,19 @@
         <v>59386</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>47797</v>
+        <v>46441</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>74278</v>
+        <v>73065</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2010588678315221</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1618220958297418</v>
+        <v>0.1572339061852343</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2514770705713312</v>
+        <v>0.2473726018738399</v>
       </c>
     </row>
     <row r="27">
@@ -10658,19 +10658,19 @@
         <v>31170</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>22271</v>
+        <v>22802</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>41473</v>
+        <v>40736</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3398834427762865</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2428418404618564</v>
+        <v>0.2486396735904593</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4522233946492473</v>
+        <v>0.4441861854769751</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>98</v>
@@ -10679,19 +10679,19 @@
         <v>62621</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>51073</v>
+        <v>51260</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>75353</v>
+        <v>73813</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.3074858399707564</v>
+        <v>0.3074858399707563</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2507789424798249</v>
+        <v>0.251697723812998</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3700013124943211</v>
+        <v>0.36243956991256</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>131</v>
@@ -10700,19 +10700,19 @@
         <v>93792</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>80090</v>
+        <v>80061</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>109643</v>
+        <v>109758</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.3175450515946595</v>
+        <v>0.3175450515946594</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2711549049377683</v>
+        <v>0.2710582110793049</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3712102385103059</v>
+        <v>0.3715996720125198</v>
       </c>
     </row>
     <row r="28">
@@ -10804,19 +10804,19 @@
         <v>2805</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>398</v>
+        <v>411</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>7972</v>
+        <v>8181</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.143298614436864</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02034455942102326</v>
+        <v>0.02098956561095924</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4073328457848647</v>
+        <v>0.4180086660080261</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>45</v>
@@ -10825,19 +10825,19 @@
         <v>35526</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>26731</v>
+        <v>26231</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>47270</v>
+        <v>48333</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1930545914426278</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1452584871636674</v>
+        <v>0.1425407299267296</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.256869088298065</v>
+        <v>0.2626463135523133</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>48</v>
@@ -10846,19 +10846,19 @@
         <v>38331</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28787</v>
+        <v>28491</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>51596</v>
+        <v>50643</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1882714348796138</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1413942195337878</v>
+        <v>0.1399381986289889</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2534235338229877</v>
+        <v>0.2487471530320133</v>
       </c>
     </row>
     <row r="30">
@@ -10875,19 +10875,19 @@
         <v>6260</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1574</v>
+        <v>1467</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>13811</v>
+        <v>13568</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.3198257302343472</v>
+        <v>0.3198257302343471</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08040341127406662</v>
+        <v>0.07494282567941585</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.7056372503590648</v>
+        <v>0.6932128711617341</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>89</v>
@@ -10896,19 +10896,19 @@
         <v>61831</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>50017</v>
+        <v>49343</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>73914</v>
+        <v>73386</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3359975712620612</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.2717990305829933</v>
+        <v>0.2681382720324433</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4016570386570741</v>
+        <v>0.3987909908806712</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>92</v>
@@ -10917,19 +10917,19 @@
         <v>68091</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>55662</v>
+        <v>55618</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>82179</v>
+        <v>82201</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.334442934971053</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2733980780608953</v>
+        <v>0.2731798828058043</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4036404881736443</v>
+        <v>0.4037491049236049</v>
       </c>
     </row>
     <row r="31">
@@ -10959,19 +10959,19 @@
         <v>32843</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>24747</v>
+        <v>25065</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>41583</v>
+        <v>42352</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.1784738887181888</v>
+        <v>0.1784738887181887</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1344795265715488</v>
+        <v>0.1362074153495924</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2259668041746227</v>
+        <v>0.2301468524277902</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>54</v>
@@ -10980,19 +10980,19 @@
         <v>32843</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>25391</v>
+        <v>24847</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>43103</v>
+        <v>42501</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.161316783109547</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1247132099927388</v>
+        <v>0.1220438345518029</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2117121309550906</v>
+        <v>0.2087538973096007</v>
       </c>
     </row>
     <row r="32">
@@ -11009,19 +11009,19 @@
         <v>10508</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>3864</v>
+        <v>2863</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>16356</v>
+        <v>16146</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.5368756553287889</v>
+        <v>0.5368756553287887</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1974156793480555</v>
+        <v>0.1463016430950058</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8356891429202044</v>
+        <v>0.824959517215357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>71</v>
@@ -11030,19 +11030,19 @@
         <v>53822</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>42365</v>
+        <v>43174</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>66845</v>
+        <v>66137</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2924739485771223</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2302147568892398</v>
+        <v>0.2346123906414694</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3632429561154318</v>
+        <v>0.3593965346808885</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>76</v>
@@ -11051,19 +11051,19 @@
         <v>64329</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>49912</v>
+        <v>50022</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>79295</v>
+        <v>79551</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3159688470397862</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2451557932540837</v>
+        <v>0.245693345297953</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.38947855396251</v>
+        <v>0.3907354816589296</v>
       </c>
     </row>
     <row r="33">
@@ -11155,19 +11155,19 @@
         <v>117878</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>99645</v>
+        <v>99492</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>136958</v>
+        <v>140006</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.184546226348814</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1560013961157831</v>
+        <v>0.155761516074525</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2144174365133336</v>
+        <v>0.2191895121840735</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>248</v>
@@ -11176,19 +11176,19 @@
         <v>171812</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>152801</v>
+        <v>153716</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>191139</v>
+        <v>192373</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2018202983538529</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1794884934409726</v>
+        <v>0.1805635802907418</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.2245232158021572</v>
+        <v>0.2259729708580941</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>374</v>
@@ -11197,19 +11197,19 @@
         <v>289690</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>262487</v>
+        <v>262542</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>317995</v>
+        <v>321035</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.1944153830546402</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1761591365404593</v>
+        <v>0.1761957287189081</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2134113357573453</v>
+        <v>0.2154511545623155</v>
       </c>
     </row>
     <row r="35">
@@ -11226,19 +11226,19 @@
         <v>187701</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>163517</v>
+        <v>165265</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>210750</v>
+        <v>211797</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2938579558769179</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2559970730233116</v>
+        <v>0.258733148239462</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3299432078810174</v>
+        <v>0.3315819172914786</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>383</v>
@@ -11247,19 +11247,19 @@
         <v>261576</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>239011</v>
+        <v>240730</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>285580</v>
+        <v>285052</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.3072619837593008</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2807562628822702</v>
+        <v>0.2827761175212291</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3354593851309453</v>
+        <v>0.3348387409662948</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>580</v>
@@ -11268,19 +11268,19 @@
         <v>449276</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>418055</v>
+        <v>417008</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>481177</v>
+        <v>485552</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.3015160489786435</v>
+        <v>0.3015160489786436</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2805634109466493</v>
+        <v>0.2798601666661386</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.3229251774989708</v>
+        <v>0.3258615645912681</v>
       </c>
     </row>
     <row r="36">
@@ -11297,19 +11297,19 @@
         <v>114819</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>95902</v>
+        <v>95309</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>136987</v>
+        <v>135873</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1797573503810825</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1501417458757198</v>
+        <v>0.149212028148768</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2144617562772353</v>
+        <v>0.2127181420580249</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>225</v>
@@ -11318,19 +11318,19 @@
         <v>149517</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>133080</v>
+        <v>131602</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>171031</v>
+        <v>169255</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1756313335006085</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1563231499682914</v>
+        <v>0.15458720585631</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2009029401431585</v>
+        <v>0.198816534739109</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>348</v>
@@ -11339,19 +11339,19 @@
         <v>264336</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>237619</v>
+        <v>238828</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>290838</v>
+        <v>293797</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1774000424369913</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1594696930743237</v>
+        <v>0.1602812325556372</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1951855714372263</v>
+        <v>0.197171766400552</v>
       </c>
     </row>
     <row r="37">
@@ -11368,19 +11368,19 @@
         <v>218348</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>193722</v>
+        <v>193246</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>243747</v>
+        <v>242202</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3418384673931856</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3032849853155758</v>
+        <v>0.3025400726679969</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3816029473739588</v>
+        <v>0.3791838100663686</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>390</v>
@@ -11389,19 +11389,19 @@
         <v>268407</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>243240</v>
+        <v>243316</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>290561</v>
+        <v>292849</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3152863843862378</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2857241859095203</v>
+        <v>0.2858132787637198</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3413099740336792</v>
+        <v>0.343997885736495</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>607</v>
@@ -11410,19 +11410,19 @@
         <v>486755</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>454417</v>
+        <v>451489</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>524257</v>
+        <v>520157</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.3266685255297249</v>
+        <v>0.326668525529725</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.30496598857683</v>
+        <v>0.3030012615158624</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3518369976082841</v>
+        <v>0.3490853405605561</v>
       </c>
     </row>
     <row r="38">
